--- a/resmaz.xlsx
+++ b/resmaz.xlsx
@@ -488,117 +488,125 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>64221-3502070 | Барабан тормозной МАЗ 10 отв. Наб. Челны</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>64221-3502070</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>350207064221</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>64221-3502070-СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Барабан тормозной (10 отв.) МАЗ </t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>350207064221СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" s="2" t="n">
         <v>7775</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>54321-3104051 | Болт короткий МАЗ (шпилька передняя L=85мм) ОАО МАЗ</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>54321-3102008</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Колпак колеса МАЗ (декоративный) для МАЗ</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>310200854321</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>75.00000000000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>395</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>54321-3104051</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>310405154321</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>54321-3104051-01-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Болт ступицы (Еврошпилька М22х1,5 L-82 мм) МАЗ, ТЕФЛОН (упак. 10 шт)</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>01310405154321СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="I3" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>54321-3104082  | Втулка цапфы МАЗ</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>54321-3104082</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>310408254321</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>54321-3104082-СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Втулка цапфы моста, для МАЗ</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>310408254321СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>70.69767441860465</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" s="2" t="n">
         <v>975</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -685,216 +693,248 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>64221-3502111 | Кулак разжимной L=545/500 лев зад. диск. кол.</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>64221-3502151</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Щиток тормоза задний левый, для МАЗ</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>350215164221</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>600</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>64221-3502111</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>350211164221</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>64221-3502111-10-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кулак разжимной (L=546 мм, левый, под рычаг с широким шлицем) </t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10350211164221СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>2775</v>
+      </c>
+      <c r="I7" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>64221-3502110 | Кулак разжимной L=545/500 прав зад. диск. кол.</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>64221-3502151</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Щиток тормоза задний левый, для МАЗ</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>350215164221</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>600</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>64221-3502110</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>350211064221</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>64221-3502110-10-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кулак разжимной (L=546 мм, правый, под рычаг с широким шлицем) </t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10350211064221СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>2775</v>
+      </c>
+      <c r="I8" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>64221-3502024-10 | Опора кулака разжимного в сб. МАЗ</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>64221-3502150</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Щиток тормоза задний правый, для МАЗ</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>350215064221</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>600</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>64221-3502024-10</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10350202464221</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>64221-3502024-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Опора разжимного кулака в сборе (с ШС-40) МАЗ-5336, 6422, 103, 104, 105</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>350202464221СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>1595</v>
+      </c>
+      <c r="I9" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>54326-3501034 | Пружина 54326 старого обр.МАЗ</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>54326-3501091</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Колодка тормозная МАЗ (шир.=16 см, с отв. под датчик АБС, левая) </t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>350109154326</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3575</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>54326-3501034</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>350103454326</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>54326-3501034-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Пружина полуприцепа колодок стяжная (двойная) (упак. 10 шт) для МАЗ</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>350103454326СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="I10" s="2" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>64221-3003052-10 | Тяга рулевая поперечная (L=1571) МАЗ</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>64221-3003052-10</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>10300305264221</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>64221-3003052-10-СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Тяга рулевая поперечная МАЗ-5336, 5440, 5516, 5551, 6303, 6422, 6430, 6516V8-520 (6516V8-540)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>10300305264221СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G11" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H11" s="2" t="n">
         <v>10555</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>5551-3003010-30 | Тяга рулевая продольная МАЗ 5516</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>5551-3003010-30</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>3030030105551</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5336-3003010-СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Ремкомплект тяги МАЗ ПОЛНЫЙ (палец с сухарями=2 шт+гайка=2шт+пруж.=2шт+пыльник2шт)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>30030105336СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1255</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5551-3003010-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Тяга рулевая продольная МАЗ-533702, 543202, 54323, 5551, 555102, 5516, 03, 05, 6422, 64229, L=754 мм</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>30030105551СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>9795</v>
+      </c>
+      <c r="I12" s="2" t="n">
         <v>1</v>
       </c>
     </row>
